--- a/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
+++ b/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\United States\us-eps\InputData\trans\BNoGP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabian.hein\Desktop\EPS_new\transport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A797E-B4DD-42F9-A04A-A3DE945D70FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970C490A-B8A8-4523-A942-04BB8D858BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="45" windowWidth="16110" windowHeight="8835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BNoGP" sheetId="3" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
+    <sheet name="BNoGP" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="income">#REF!</definedName>
     <definedName name="Range_EV">#REF!</definedName>
     <definedName name="range_ICE">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,43 +44,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>BNoEVC BAU Number of Gas Pumps</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>Number of Gas pumps</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Number of Gas pumps</t>
-  </si>
-  <si>
-    <t>CleanTechnica</t>
-  </si>
-  <si>
-    <t>Stop Comparing the Number of Gas Stations to EV Charging Stations</t>
-  </si>
-  <si>
-    <t>https://cleantechnica.com/2018/03/07/stop-comparing-number-gas-stations-ev-charging-stations/</t>
-  </si>
-  <si>
-    <t>Number of chargers</t>
-  </si>
-  <si>
-    <t>BAU EV Chargers</t>
-  </si>
-  <si>
-    <t>We assume the number of gas pumps remains relatively constant.</t>
-  </si>
-  <si>
-    <t>BNoEVC BAU Number of Gas Pumps</t>
+    <t>gas stations</t>
+  </si>
+  <si>
+    <t>We assume 10 gas pumps per gas station in average</t>
+  </si>
+  <si>
+    <t>ICCT 2021</t>
+  </si>
+  <si>
+    <t>The role of the European Union’s vehicle CO2 standards in achieving the European Green Deal</t>
+  </si>
+  <si>
+    <t>https://theicct.org/wp-content/uploads/2021/06/EU-vehicle-standards-green-deal-mar21.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The development of gas pumps is assumed to correlate with the projected </t>
+  </si>
+  <si>
+    <t>sales development of gasoline and diesel</t>
+  </si>
+  <si>
+    <t>Number of gas pumps</t>
+  </si>
+  <si>
+    <t>BAU gas pumps</t>
+  </si>
+  <si>
+    <t>Numer of gas pumps based on total fuel sales development</t>
+  </si>
+  <si>
+    <t>ICCT</t>
+  </si>
+  <si>
+    <t>passenger cars</t>
+  </si>
+  <si>
+    <t>trucks</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>tailpipe CO2-emissions (milion tonnes)</t>
+  </si>
+  <si>
+    <t>figure 3, page 5</t>
+  </si>
+  <si>
+    <t>tailpipe CO2 emissions (million tonnes)</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +139,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -114,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,12 +185,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -138,8 +211,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3 2" xfId="1" xr:uid="{3F0B3957-5839-491A-BB84-14323CF38870}"/>
   </cellStyles>
@@ -419,13 +498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
@@ -433,12 +510,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -446,32 +523,42 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -481,213 +568,1189 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C168868-269A-4654-B56E-6430D5E306FF}">
+  <dimension ref="A1:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2030</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2035</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2040</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2045</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>550</v>
+      </c>
+      <c r="C7" s="8">
+        <v>495</v>
+      </c>
+      <c r="D7" s="8">
+        <v>418</v>
+      </c>
+      <c r="E7" s="8">
+        <v>352</v>
+      </c>
+      <c r="F7" s="8">
+        <v>302.5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>275</v>
+      </c>
+      <c r="H7" s="8">
+        <v>258.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10">
+        <v>200</v>
+      </c>
+      <c r="C8" s="10">
+        <v>200</v>
+      </c>
+      <c r="D8" s="10">
+        <v>182</v>
+      </c>
+      <c r="E8" s="10">
+        <v>175</v>
+      </c>
+      <c r="F8" s="10">
+        <v>162</v>
+      </c>
+      <c r="G8" s="10">
+        <v>162</v>
+      </c>
+      <c r="H8" s="10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8">
+        <v>750</v>
+      </c>
+      <c r="C9" s="8">
+        <v>695</v>
+      </c>
+      <c r="D9" s="8">
+        <v>600</v>
+      </c>
+      <c r="E9" s="8">
+        <v>527</v>
+      </c>
+      <c r="F9" s="8">
+        <v>464.5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>437</v>
+      </c>
+      <c r="H9" s="8">
+        <v>420.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2021</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2022</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2025</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2026</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2027</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2028</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2029</v>
+      </c>
+      <c r="L12" s="8">
+        <v>2030</v>
+      </c>
+      <c r="M12" s="8">
+        <v>2031</v>
+      </c>
+      <c r="N12" s="8">
+        <v>2032</v>
+      </c>
+      <c r="O12" s="8">
+        <v>2033</v>
+      </c>
+      <c r="P12" s="8">
+        <v>2034</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>2035</v>
+      </c>
+      <c r="R12" s="8">
+        <v>2036</v>
+      </c>
+      <c r="S12" s="8">
+        <v>2037</v>
+      </c>
+      <c r="T12" s="8">
+        <v>2038</v>
+      </c>
+      <c r="U12" s="8">
+        <v>2039</v>
+      </c>
+      <c r="V12" s="8">
+        <v>2040</v>
+      </c>
+      <c r="W12" s="8">
+        <v>2041</v>
+      </c>
+      <c r="X12" s="8">
+        <v>2042</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>2043</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>2044</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>2045</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>2046</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>2047</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>2048</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>2049</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8">
+        <v>750</v>
+      </c>
+      <c r="C13" s="8">
+        <v>739</v>
+      </c>
+      <c r="D13" s="8">
+        <v>728</v>
+      </c>
+      <c r="E13" s="8">
+        <v>717</v>
+      </c>
+      <c r="F13" s="8">
+        <v>706</v>
+      </c>
+      <c r="G13" s="8">
+        <v>695</v>
+      </c>
+      <c r="H13" s="8">
+        <v>676</v>
+      </c>
+      <c r="I13" s="8">
+        <v>657</v>
+      </c>
+      <c r="J13" s="8">
+        <v>638</v>
+      </c>
+      <c r="K13" s="8">
+        <v>619</v>
+      </c>
+      <c r="L13" s="8">
+        <v>600</v>
+      </c>
+      <c r="M13" s="8">
+        <v>585</v>
+      </c>
+      <c r="N13" s="8">
+        <v>571</v>
+      </c>
+      <c r="O13" s="8">
+        <v>556</v>
+      </c>
+      <c r="P13" s="8">
+        <v>542</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>527</v>
+      </c>
+      <c r="R13" s="8">
+        <v>515</v>
+      </c>
+      <c r="S13" s="8">
+        <v>502</v>
+      </c>
+      <c r="T13" s="8">
+        <v>490</v>
+      </c>
+      <c r="U13" s="8">
+        <v>477</v>
+      </c>
+      <c r="V13" s="8">
+        <v>465</v>
+      </c>
+      <c r="W13" s="8">
+        <v>459</v>
+      </c>
+      <c r="X13" s="8">
+        <v>454</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>448</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>443</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>437</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>434</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>430</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>427</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>424</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7">
+        <v>138314</v>
+      </c>
+      <c r="C14" s="7">
+        <v>136285</v>
+      </c>
+      <c r="D14" s="7">
+        <v>134257</v>
+      </c>
+      <c r="E14" s="7">
+        <v>132228</v>
+      </c>
+      <c r="F14" s="7">
+        <v>130200</v>
+      </c>
+      <c r="G14" s="7">
+        <v>128171</v>
+      </c>
+      <c r="H14" s="7">
+        <v>124667</v>
+      </c>
+      <c r="I14" s="7">
+        <v>121163</v>
+      </c>
+      <c r="J14" s="7">
+        <v>117659</v>
+      </c>
+      <c r="K14" s="7">
+        <v>114155</v>
+      </c>
+      <c r="L14" s="7">
+        <v>110651</v>
+      </c>
+      <c r="M14" s="7">
+        <v>107959</v>
+      </c>
+      <c r="N14" s="7">
+        <v>105266</v>
+      </c>
+      <c r="O14" s="7">
+        <v>102574</v>
+      </c>
+      <c r="P14" s="7">
+        <v>99881</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>97189</v>
+      </c>
+      <c r="R14" s="7">
+        <v>94883</v>
+      </c>
+      <c r="S14" s="7">
+        <v>92578</v>
+      </c>
+      <c r="T14" s="7">
+        <v>90273</v>
+      </c>
+      <c r="U14" s="7">
+        <v>87968</v>
+      </c>
+      <c r="V14" s="7">
+        <v>85662</v>
+      </c>
+      <c r="W14" s="7">
+        <v>84648</v>
+      </c>
+      <c r="X14" s="7">
+        <v>83634</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>82620</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>81605</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>80591</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>79982</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>79374</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>78765</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>78157</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>77548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
         <v>2021</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D1" s="3">
         <v>2022</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2023</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <v>2024</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2025</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>2026</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2027</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="3">
         <v>2028</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2029</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2031</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <v>2032</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2033</v>
       </c>
-      <c r="O1" s="3">
+      <c r="P1" s="3">
         <v>2034</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2035</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="R1" s="3">
         <v>2036</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2037</v>
       </c>
-      <c r="S1" s="3">
+      <c r="T1" s="3">
         <v>2038</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>2039</v>
       </c>
-      <c r="U1" s="3">
+      <c r="V1" s="3">
         <v>2040</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2041</v>
       </c>
-      <c r="W1" s="3">
+      <c r="X1" s="3">
         <v>2042</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2043</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Z1" s="3">
         <v>2044</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2045</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AB1" s="3">
         <v>2046</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2047</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AD1" s="3">
         <v>2048</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2049</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AF1" s="3">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1200000</v>
-      </c>
-      <c r="C2">
-        <v>1200000</v>
-      </c>
-      <c r="D2">
-        <v>1200000</v>
-      </c>
-      <c r="E2">
-        <v>1200000</v>
-      </c>
-      <c r="F2">
-        <v>1200000</v>
-      </c>
-      <c r="G2">
-        <v>1200000</v>
-      </c>
-      <c r="H2">
-        <v>1200000</v>
-      </c>
-      <c r="I2">
-        <v>1200000</v>
-      </c>
-      <c r="J2">
-        <v>1200000</v>
-      </c>
-      <c r="K2">
-        <v>1200000</v>
-      </c>
-      <c r="L2">
-        <v>1200000</v>
-      </c>
-      <c r="M2">
-        <v>1200000</v>
-      </c>
-      <c r="N2">
-        <v>1200000</v>
-      </c>
-      <c r="O2">
-        <v>1200000</v>
-      </c>
-      <c r="P2">
-        <v>1200000</v>
-      </c>
-      <c r="Q2">
-        <v>1200000</v>
-      </c>
-      <c r="R2">
-        <v>1200000</v>
-      </c>
-      <c r="S2">
-        <v>1200000</v>
-      </c>
-      <c r="T2">
-        <v>1200000</v>
-      </c>
-      <c r="U2">
-        <v>1200000</v>
-      </c>
-      <c r="V2">
-        <v>1200000</v>
-      </c>
-      <c r="W2">
-        <v>1200000</v>
-      </c>
-      <c r="X2">
-        <v>1200000</v>
-      </c>
-      <c r="Y2">
-        <v>1200000</v>
-      </c>
-      <c r="Z2">
-        <v>1200000</v>
-      </c>
-      <c r="AA2">
-        <v>1200000</v>
-      </c>
-      <c r="AB2">
-        <v>1200000</v>
-      </c>
-      <c r="AC2">
-        <v>1200000</v>
-      </c>
-      <c r="AD2">
-        <v>1200000</v>
-      </c>
-      <c r="AE2">
-        <v>1200000</v>
-      </c>
-      <c r="AF2" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B2" s="7">
+        <f>Calculations!B14*10</f>
+        <v>1383140</v>
+      </c>
+      <c r="C2" s="7">
+        <f>Calculations!C14*10</f>
+        <v>1362850</v>
+      </c>
+      <c r="D2" s="7">
+        <f>Calculations!D14*10</f>
+        <v>1342570</v>
+      </c>
+      <c r="E2" s="7">
+        <f>Calculations!E14*10</f>
+        <v>1322280</v>
+      </c>
+      <c r="F2" s="7">
+        <f>Calculations!F14*10</f>
+        <v>1302000</v>
+      </c>
+      <c r="G2" s="7">
+        <f>Calculations!G14*10</f>
+        <v>1281710</v>
+      </c>
+      <c r="H2" s="7">
+        <f>Calculations!H14*10</f>
+        <v>1246670</v>
+      </c>
+      <c r="I2" s="7">
+        <f>Calculations!I14*10</f>
+        <v>1211630</v>
+      </c>
+      <c r="J2" s="7">
+        <f>Calculations!J14*10</f>
+        <v>1176590</v>
+      </c>
+      <c r="K2" s="7">
+        <f>Calculations!K14*10</f>
+        <v>1141550</v>
+      </c>
+      <c r="L2" s="7">
+        <f>Calculations!L14*10</f>
+        <v>1106510</v>
+      </c>
+      <c r="M2" s="7">
+        <f>Calculations!M14*10</f>
+        <v>1079590</v>
+      </c>
+      <c r="N2" s="7">
+        <f>Calculations!N14*10</f>
+        <v>1052660</v>
+      </c>
+      <c r="O2" s="7">
+        <f>Calculations!O14*10</f>
+        <v>1025740</v>
+      </c>
+      <c r="P2" s="7">
+        <f>Calculations!P14*10</f>
+        <v>998810</v>
+      </c>
+      <c r="Q2" s="7">
+        <f>Calculations!Q14*10</f>
+        <v>971890</v>
+      </c>
+      <c r="R2" s="7">
+        <f>Calculations!R14*10</f>
+        <v>948830</v>
+      </c>
+      <c r="S2" s="7">
+        <f>Calculations!S14*10</f>
+        <v>925780</v>
+      </c>
+      <c r="T2" s="7">
+        <f>Calculations!T14*10</f>
+        <v>902730</v>
+      </c>
+      <c r="U2" s="7">
+        <f>Calculations!U14*10</f>
+        <v>879680</v>
+      </c>
+      <c r="V2" s="7">
+        <f>Calculations!V14*10</f>
+        <v>856620</v>
+      </c>
+      <c r="W2" s="7">
+        <f>Calculations!W14*10</f>
+        <v>846480</v>
+      </c>
+      <c r="X2" s="7">
+        <f>Calculations!X14*10</f>
+        <v>836340</v>
+      </c>
+      <c r="Y2" s="7">
+        <f>Calculations!Y14*10</f>
+        <v>826200</v>
+      </c>
+      <c r="Z2" s="7">
+        <f>Calculations!Z14*10</f>
+        <v>816050</v>
+      </c>
+      <c r="AA2" s="7">
+        <f>Calculations!AA14*10</f>
+        <v>805910</v>
+      </c>
+      <c r="AB2" s="7">
+        <f>Calculations!AB14*10</f>
+        <v>799820</v>
+      </c>
+      <c r="AC2" s="7">
+        <f>Calculations!AC14*10</f>
+        <v>793740</v>
+      </c>
+      <c r="AD2" s="7">
+        <f>Calculations!AD14*10</f>
+        <v>787650</v>
+      </c>
+      <c r="AE2" s="7">
+        <f>Calculations!AE14*10</f>
+        <v>781570</v>
+      </c>
+      <c r="AF2" s="7">
+        <f>Calculations!AF14*10</f>
+        <v>775480</v>
+      </c>
+      <c r="AG2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a12692b057bc30d68596ac87c75a308">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd464ebbb7361a2027b4bc4be8d527a" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94825B5B-5551-428A-ACDB-9F3C83C6C691}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9D480BD-2350-4E3F-8A60-31F7B799F325}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58EF8824-9526-4355-8C1F-9528CCE4920E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
+++ b/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabian.hein\Desktop\EPS_new\transport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\trans\BNoGP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970C490A-B8A8-4523-A942-04BB8D858BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331EE0ED-8698-40DB-B7E7-6F753B9A0667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="1305" windowWidth="23430" windowHeight="15060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="range_ICE">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,9 +81,6 @@
     <t>Number of gas pumps</t>
   </si>
   <si>
-    <t>BAU gas pumps</t>
-  </si>
-  <si>
     <t>Numer of gas pumps based on total fuel sales development</t>
   </si>
   <si>
@@ -110,6 +106,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>BAU EV Chargers</t>
   </si>
 </sst>
 </file>
@@ -200,7 +199,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -216,6 +215,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -523,7 +523,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
   <dimension ref="A1:AF51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,12 +587,12 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9">
         <v>2020</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8">
         <v>550</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="10">
         <v>200</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8">
         <v>750</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="8">
         <v>2020</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="8">
         <v>750</v>
@@ -1241,242 +1241,237 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1">
         <v>2021</v>
       </c>
-      <c r="D1" s="3">
+      <c r="C1" s="3">
         <v>2022</v>
       </c>
-      <c r="E1">
+      <c r="D1">
         <v>2023</v>
       </c>
-      <c r="F1" s="3">
+      <c r="E1" s="3">
         <v>2024</v>
       </c>
-      <c r="G1">
+      <c r="F1">
         <v>2025</v>
       </c>
-      <c r="H1" s="3">
+      <c r="G1" s="3">
         <v>2026</v>
       </c>
-      <c r="I1">
+      <c r="H1">
         <v>2027</v>
       </c>
-      <c r="J1" s="3">
+      <c r="I1" s="3">
         <v>2028</v>
       </c>
-      <c r="K1">
+      <c r="J1">
         <v>2029</v>
       </c>
-      <c r="L1" s="3">
+      <c r="K1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1">
+      <c r="L1">
         <v>2031</v>
       </c>
-      <c r="N1" s="3">
+      <c r="M1" s="3">
         <v>2032</v>
       </c>
-      <c r="O1">
+      <c r="N1">
         <v>2033</v>
       </c>
-      <c r="P1" s="3">
+      <c r="O1" s="3">
         <v>2034</v>
       </c>
-      <c r="Q1">
+      <c r="P1">
         <v>2035</v>
       </c>
-      <c r="R1" s="3">
+      <c r="Q1" s="3">
         <v>2036</v>
       </c>
-      <c r="S1">
+      <c r="R1">
         <v>2037</v>
       </c>
-      <c r="T1" s="3">
+      <c r="S1" s="3">
         <v>2038</v>
       </c>
-      <c r="U1">
+      <c r="T1">
         <v>2039</v>
       </c>
-      <c r="V1" s="3">
+      <c r="U1" s="3">
         <v>2040</v>
       </c>
-      <c r="W1">
+      <c r="V1">
         <v>2041</v>
       </c>
-      <c r="X1" s="3">
+      <c r="W1" s="3">
         <v>2042</v>
       </c>
-      <c r="Y1">
+      <c r="X1">
         <v>2043</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Y1" s="3">
         <v>2044</v>
       </c>
-      <c r="AA1">
+      <c r="Z1">
         <v>2045</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AA1" s="3">
         <v>2046</v>
       </c>
-      <c r="AC1">
+      <c r="AB1">
         <v>2047</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AC1" s="3">
         <v>2048</v>
       </c>
-      <c r="AE1">
+      <c r="AD1">
         <v>2049</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AE1" s="3">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7">
-        <f>Calculations!B14*10</f>
-        <v>1383140</v>
-      </c>
-      <c r="C2" s="7">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="11">
         <f>Calculations!C14*10</f>
         <v>1362850</v>
       </c>
-      <c r="D2" s="7">
+      <c r="C2" s="11">
         <f>Calculations!D14*10</f>
         <v>1342570</v>
       </c>
-      <c r="E2" s="7">
+      <c r="D2" s="11">
         <f>Calculations!E14*10</f>
         <v>1322280</v>
       </c>
-      <c r="F2" s="7">
+      <c r="E2" s="11">
         <f>Calculations!F14*10</f>
         <v>1302000</v>
       </c>
-      <c r="G2" s="7">
+      <c r="F2" s="11">
         <f>Calculations!G14*10</f>
         <v>1281710</v>
       </c>
-      <c r="H2" s="7">
+      <c r="G2" s="11">
         <f>Calculations!H14*10</f>
         <v>1246670</v>
       </c>
-      <c r="I2" s="7">
+      <c r="H2" s="11">
         <f>Calculations!I14*10</f>
         <v>1211630</v>
       </c>
-      <c r="J2" s="7">
+      <c r="I2" s="11">
         <f>Calculations!J14*10</f>
         <v>1176590</v>
       </c>
-      <c r="K2" s="7">
+      <c r="J2" s="11">
         <f>Calculations!K14*10</f>
         <v>1141550</v>
       </c>
-      <c r="L2" s="7">
+      <c r="K2" s="11">
         <f>Calculations!L14*10</f>
         <v>1106510</v>
       </c>
-      <c r="M2" s="7">
+      <c r="L2" s="11">
         <f>Calculations!M14*10</f>
         <v>1079590</v>
       </c>
-      <c r="N2" s="7">
+      <c r="M2" s="11">
         <f>Calculations!N14*10</f>
         <v>1052660</v>
       </c>
-      <c r="O2" s="7">
+      <c r="N2" s="11">
         <f>Calculations!O14*10</f>
         <v>1025740</v>
       </c>
-      <c r="P2" s="7">
+      <c r="O2" s="11">
         <f>Calculations!P14*10</f>
         <v>998810</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="P2" s="11">
         <f>Calculations!Q14*10</f>
         <v>971890</v>
       </c>
-      <c r="R2" s="7">
+      <c r="Q2" s="11">
         <f>Calculations!R14*10</f>
         <v>948830</v>
       </c>
-      <c r="S2" s="7">
+      <c r="R2" s="11">
         <f>Calculations!S14*10</f>
         <v>925780</v>
       </c>
-      <c r="T2" s="7">
+      <c r="S2" s="11">
         <f>Calculations!T14*10</f>
         <v>902730</v>
       </c>
-      <c r="U2" s="7">
+      <c r="T2" s="11">
         <f>Calculations!U14*10</f>
         <v>879680</v>
       </c>
-      <c r="V2" s="7">
+      <c r="U2" s="11">
         <f>Calculations!V14*10</f>
         <v>856620</v>
       </c>
-      <c r="W2" s="7">
+      <c r="V2" s="11">
         <f>Calculations!W14*10</f>
         <v>846480</v>
       </c>
-      <c r="X2" s="7">
+      <c r="W2" s="11">
         <f>Calculations!X14*10</f>
         <v>836340</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="X2" s="11">
         <f>Calculations!Y14*10</f>
         <v>826200</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="Y2" s="11">
         <f>Calculations!Z14*10</f>
         <v>816050</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="Z2" s="11">
         <f>Calculations!AA14*10</f>
         <v>805910</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AA2" s="11">
         <f>Calculations!AB14*10</f>
         <v>799820</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AB2" s="11">
         <f>Calculations!AC14*10</f>
         <v>793740</v>
       </c>
-      <c r="AD2" s="7">
+      <c r="AC2" s="11">
         <f>Calculations!AD14*10</f>
         <v>787650</v>
       </c>
-      <c r="AE2" s="7">
+      <c r="AD2" s="11">
         <f>Calculations!AE14*10</f>
         <v>781570</v>
       </c>
-      <c r="AF2" s="7">
+      <c r="AE2" s="11">
         <f>Calculations!AF14*10</f>
         <v>775480</v>
       </c>
-      <c r="AG2" s="2"/>
+      <c r="AF2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1733,7 +1728,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94825B5B-5551-428A-ACDB-9F3C83C6C691}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94825B5B-5551-428A-ACDB-9F3C83C6C691}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
+++ b/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\United States\us-eps\InputData\trans\BNoGP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Desktop\Dropbox_Free_Zone\EPS\Model Repos\eps-us\InputData\trans\BNoGP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A797E-B4DD-42F9-A04A-A3DE945D70FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1B5AEA-3A11-463F-9E0D-2C706DCF7B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="45" windowWidth="16110" windowHeight="8835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="885" windowWidth="22950" windowHeight="13650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -63,13 +63,13 @@
     <t>Number of chargers</t>
   </si>
   <si>
-    <t>BAU EV Chargers</t>
-  </si>
-  <si>
     <t>We assume the number of gas pumps remains relatively constant.</t>
   </si>
   <si>
     <t>BNoEVC BAU Number of Gas Pumps</t>
+  </si>
+  <si>
+    <t>BAU Gas Pumps</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -487,9 +487,7 @@
   </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -593,7 +591,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1200000</v>

--- a/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
+++ b/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\trans\BNoGP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\BNoGP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331EE0ED-8698-40DB-B7E7-6F753B9A0667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8786C84A-B0FD-4D6D-BB29-4F3F5CB629F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="1305" windowWidth="23430" windowHeight="15060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -108,14 +108,17 @@
     <t>total</t>
   </si>
   <si>
-    <t>BAU EV Chargers</t>
+    <t>BAU Gas Pumps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +164,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -194,12 +204,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -216,8 +227,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3 2" xfId="1" xr:uid="{3F0B3957-5839-491A-BB84-14323CF38870}"/>
@@ -502,18 +515,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -521,42 +534,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -575,39 +588,39 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -633,7 +646,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -659,7 +672,7 @@
         <v>258.5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -685,7 +698,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -711,7 +724,7 @@
         <v>420.5</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -721,7 +734,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -819,7 +832,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -917,7 +930,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1015,7 +1028,7 @@
         <v>77548</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1048,185 +1061,185 @@
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="7"/>
@@ -1247,12 +1260,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1347,11 +1360,11 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <f>Calculations!C14*10</f>
         <v>1362850</v>
       </c>
@@ -1479,6 +1492,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a12692b057bc30d68596ac87c75a308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd464ebbb7361a2027b4bc4be8d527a" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -1707,27 +1740,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58EF8824-9526-4355-8C1F-9528CCE4920E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9D480BD-2350-4E3F-8A60-31F7B799F325}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94825B5B-5551-428A-ACDB-9F3C83C6C691}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1744,23 +1776,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9D480BD-2350-4E3F-8A60-31F7B799F325}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58EF8824-9526-4355-8C1F-9528CCE4920E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
+++ b/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Desktop\Dropbox_Free_Zone\EPS\Model Repos\eps-us\InputData\trans\BNoGP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\trans\BNoGP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1B5AEA-3A11-463F-9E0D-2C706DCF7B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331EE0ED-8698-40DB-B7E7-6F753B9A0667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="885" windowWidth="22950" windowHeight="13650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="1305" windowWidth="23430" windowHeight="15060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BNoGP" sheetId="3" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
+    <sheet name="BNoGP" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="income">#REF!</definedName>
     <definedName name="Range_EV">#REF!</definedName>
     <definedName name="range_ICE">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +34,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,43 +43,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>BNoEVC BAU Number of Gas Pumps</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>Number of Gas pumps</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Number of Gas pumps</t>
-  </si>
-  <si>
-    <t>CleanTechnica</t>
-  </si>
-  <si>
-    <t>Stop Comparing the Number of Gas Stations to EV Charging Stations</t>
-  </si>
-  <si>
-    <t>https://cleantechnica.com/2018/03/07/stop-comparing-number-gas-stations-ev-charging-stations/</t>
-  </si>
-  <si>
-    <t>Number of chargers</t>
-  </si>
-  <si>
-    <t>We assume the number of gas pumps remains relatively constant.</t>
-  </si>
-  <si>
-    <t>BNoEVC BAU Number of Gas Pumps</t>
-  </si>
-  <si>
-    <t>BAU Gas Pumps</t>
+    <t>gas stations</t>
+  </si>
+  <si>
+    <t>We assume 10 gas pumps per gas station in average</t>
+  </si>
+  <si>
+    <t>ICCT 2021</t>
+  </si>
+  <si>
+    <t>The role of the European Union’s vehicle CO2 standards in achieving the European Green Deal</t>
+  </si>
+  <si>
+    <t>https://theicct.org/wp-content/uploads/2021/06/EU-vehicle-standards-green-deal-mar21.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The development of gas pumps is assumed to correlate with the projected </t>
+  </si>
+  <si>
+    <t>sales development of gasoline and diesel</t>
+  </si>
+  <si>
+    <t>Number of gas pumps</t>
+  </si>
+  <si>
+    <t>Numer of gas pumps based on total fuel sales development</t>
+  </si>
+  <si>
+    <t>ICCT</t>
+  </si>
+  <si>
+    <t>passenger cars</t>
+  </si>
+  <si>
+    <t>trucks</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>tailpipe CO2-emissions (milion tonnes)</t>
+  </si>
+  <si>
+    <t>figure 3, page 5</t>
+  </si>
+  <si>
+    <t>tailpipe CO2 emissions (million tonnes)</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>BAU EV Chargers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +138,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -114,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,12 +184,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -138,8 +210,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3 2" xfId="1" xr:uid="{3F0B3957-5839-491A-BB84-14323CF38870}"/>
   </cellStyles>
@@ -419,13 +498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
@@ -433,12 +510,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -446,32 +523,42 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -481,22 +568,693 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C168868-269A-4654-B56E-6430D5E306FF}">
+  <dimension ref="A1:AF51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2030</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2035</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2040</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2045</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>550</v>
+      </c>
+      <c r="C7" s="8">
+        <v>495</v>
+      </c>
+      <c r="D7" s="8">
+        <v>418</v>
+      </c>
+      <c r="E7" s="8">
+        <v>352</v>
+      </c>
+      <c r="F7" s="8">
+        <v>302.5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>275</v>
+      </c>
+      <c r="H7" s="8">
+        <v>258.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="10">
+        <v>200</v>
+      </c>
+      <c r="C8" s="10">
+        <v>200</v>
+      </c>
+      <c r="D8" s="10">
+        <v>182</v>
+      </c>
+      <c r="E8" s="10">
+        <v>175</v>
+      </c>
+      <c r="F8" s="10">
+        <v>162</v>
+      </c>
+      <c r="G8" s="10">
+        <v>162</v>
+      </c>
+      <c r="H8" s="10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8">
+        <v>750</v>
+      </c>
+      <c r="C9" s="8">
+        <v>695</v>
+      </c>
+      <c r="D9" s="8">
+        <v>600</v>
+      </c>
+      <c r="E9" s="8">
+        <v>527</v>
+      </c>
+      <c r="F9" s="8">
+        <v>464.5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>437</v>
+      </c>
+      <c r="H9" s="8">
+        <v>420.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2021</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2022</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2025</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2026</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2027</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2028</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2029</v>
+      </c>
+      <c r="L12" s="8">
+        <v>2030</v>
+      </c>
+      <c r="M12" s="8">
+        <v>2031</v>
+      </c>
+      <c r="N12" s="8">
+        <v>2032</v>
+      </c>
+      <c r="O12" s="8">
+        <v>2033</v>
+      </c>
+      <c r="P12" s="8">
+        <v>2034</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>2035</v>
+      </c>
+      <c r="R12" s="8">
+        <v>2036</v>
+      </c>
+      <c r="S12" s="8">
+        <v>2037</v>
+      </c>
+      <c r="T12" s="8">
+        <v>2038</v>
+      </c>
+      <c r="U12" s="8">
+        <v>2039</v>
+      </c>
+      <c r="V12" s="8">
+        <v>2040</v>
+      </c>
+      <c r="W12" s="8">
+        <v>2041</v>
+      </c>
+      <c r="X12" s="8">
+        <v>2042</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>2043</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>2044</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>2045</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>2046</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>2047</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>2048</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>2049</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>750</v>
+      </c>
+      <c r="C13" s="8">
+        <v>739</v>
+      </c>
+      <c r="D13" s="8">
+        <v>728</v>
+      </c>
+      <c r="E13" s="8">
+        <v>717</v>
+      </c>
+      <c r="F13" s="8">
+        <v>706</v>
+      </c>
+      <c r="G13" s="8">
+        <v>695</v>
+      </c>
+      <c r="H13" s="8">
+        <v>676</v>
+      </c>
+      <c r="I13" s="8">
+        <v>657</v>
+      </c>
+      <c r="J13" s="8">
+        <v>638</v>
+      </c>
+      <c r="K13" s="8">
+        <v>619</v>
+      </c>
+      <c r="L13" s="8">
+        <v>600</v>
+      </c>
+      <c r="M13" s="8">
+        <v>585</v>
+      </c>
+      <c r="N13" s="8">
+        <v>571</v>
+      </c>
+      <c r="O13" s="8">
+        <v>556</v>
+      </c>
+      <c r="P13" s="8">
+        <v>542</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>527</v>
+      </c>
+      <c r="R13" s="8">
+        <v>515</v>
+      </c>
+      <c r="S13" s="8">
+        <v>502</v>
+      </c>
+      <c r="T13" s="8">
+        <v>490</v>
+      </c>
+      <c r="U13" s="8">
+        <v>477</v>
+      </c>
+      <c r="V13" s="8">
+        <v>465</v>
+      </c>
+      <c r="W13" s="8">
+        <v>459</v>
+      </c>
+      <c r="X13" s="8">
+        <v>454</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>448</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>443</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>437</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>434</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>430</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>427</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>424</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7">
+        <v>138314</v>
+      </c>
+      <c r="C14" s="7">
+        <v>136285</v>
+      </c>
+      <c r="D14" s="7">
+        <v>134257</v>
+      </c>
+      <c r="E14" s="7">
+        <v>132228</v>
+      </c>
+      <c r="F14" s="7">
+        <v>130200</v>
+      </c>
+      <c r="G14" s="7">
+        <v>128171</v>
+      </c>
+      <c r="H14" s="7">
+        <v>124667</v>
+      </c>
+      <c r="I14" s="7">
+        <v>121163</v>
+      </c>
+      <c r="J14" s="7">
+        <v>117659</v>
+      </c>
+      <c r="K14" s="7">
+        <v>114155</v>
+      </c>
+      <c r="L14" s="7">
+        <v>110651</v>
+      </c>
+      <c r="M14" s="7">
+        <v>107959</v>
+      </c>
+      <c r="N14" s="7">
+        <v>105266</v>
+      </c>
+      <c r="O14" s="7">
+        <v>102574</v>
+      </c>
+      <c r="P14" s="7">
+        <v>99881</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>97189</v>
+      </c>
+      <c r="R14" s="7">
+        <v>94883</v>
+      </c>
+      <c r="S14" s="7">
+        <v>92578</v>
+      </c>
+      <c r="T14" s="7">
+        <v>90273</v>
+      </c>
+      <c r="U14" s="7">
+        <v>87968</v>
+      </c>
+      <c r="V14" s="7">
+        <v>85662</v>
+      </c>
+      <c r="W14" s="7">
+        <v>84648</v>
+      </c>
+      <c r="X14" s="7">
+        <v>83634</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>82620</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>81605</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>80591</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>79982</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>79374</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>78765</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>78157</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>77548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -590,102 +1348,419 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1200000</v>
-      </c>
-      <c r="C2">
-        <v>1200000</v>
-      </c>
-      <c r="D2">
-        <v>1200000</v>
-      </c>
-      <c r="E2">
-        <v>1200000</v>
-      </c>
-      <c r="F2">
-        <v>1200000</v>
-      </c>
-      <c r="G2">
-        <v>1200000</v>
-      </c>
-      <c r="H2">
-        <v>1200000</v>
-      </c>
-      <c r="I2">
-        <v>1200000</v>
-      </c>
-      <c r="J2">
-        <v>1200000</v>
-      </c>
-      <c r="K2">
-        <v>1200000</v>
-      </c>
-      <c r="L2">
-        <v>1200000</v>
-      </c>
-      <c r="M2">
-        <v>1200000</v>
-      </c>
-      <c r="N2">
-        <v>1200000</v>
-      </c>
-      <c r="O2">
-        <v>1200000</v>
-      </c>
-      <c r="P2">
-        <v>1200000</v>
-      </c>
-      <c r="Q2">
-        <v>1200000</v>
-      </c>
-      <c r="R2">
-        <v>1200000</v>
-      </c>
-      <c r="S2">
-        <v>1200000</v>
-      </c>
-      <c r="T2">
-        <v>1200000</v>
-      </c>
-      <c r="U2">
-        <v>1200000</v>
-      </c>
-      <c r="V2">
-        <v>1200000</v>
-      </c>
-      <c r="W2">
-        <v>1200000</v>
-      </c>
-      <c r="X2">
-        <v>1200000</v>
-      </c>
-      <c r="Y2">
-        <v>1200000</v>
-      </c>
-      <c r="Z2">
-        <v>1200000</v>
-      </c>
-      <c r="AA2">
-        <v>1200000</v>
-      </c>
-      <c r="AB2">
-        <v>1200000</v>
-      </c>
-      <c r="AC2">
-        <v>1200000</v>
-      </c>
-      <c r="AD2">
-        <v>1200000</v>
-      </c>
-      <c r="AE2">
-        <v>1200000</v>
+      <c r="A2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="11">
+        <f>Calculations!C14*10</f>
+        <v>1362850</v>
+      </c>
+      <c r="C2" s="11">
+        <f>Calculations!D14*10</f>
+        <v>1342570</v>
+      </c>
+      <c r="D2" s="11">
+        <f>Calculations!E14*10</f>
+        <v>1322280</v>
+      </c>
+      <c r="E2" s="11">
+        <f>Calculations!F14*10</f>
+        <v>1302000</v>
+      </c>
+      <c r="F2" s="11">
+        <f>Calculations!G14*10</f>
+        <v>1281710</v>
+      </c>
+      <c r="G2" s="11">
+        <f>Calculations!H14*10</f>
+        <v>1246670</v>
+      </c>
+      <c r="H2" s="11">
+        <f>Calculations!I14*10</f>
+        <v>1211630</v>
+      </c>
+      <c r="I2" s="11">
+        <f>Calculations!J14*10</f>
+        <v>1176590</v>
+      </c>
+      <c r="J2" s="11">
+        <f>Calculations!K14*10</f>
+        <v>1141550</v>
+      </c>
+      <c r="K2" s="11">
+        <f>Calculations!L14*10</f>
+        <v>1106510</v>
+      </c>
+      <c r="L2" s="11">
+        <f>Calculations!M14*10</f>
+        <v>1079590</v>
+      </c>
+      <c r="M2" s="11">
+        <f>Calculations!N14*10</f>
+        <v>1052660</v>
+      </c>
+      <c r="N2" s="11">
+        <f>Calculations!O14*10</f>
+        <v>1025740</v>
+      </c>
+      <c r="O2" s="11">
+        <f>Calculations!P14*10</f>
+        <v>998810</v>
+      </c>
+      <c r="P2" s="11">
+        <f>Calculations!Q14*10</f>
+        <v>971890</v>
+      </c>
+      <c r="Q2" s="11">
+        <f>Calculations!R14*10</f>
+        <v>948830</v>
+      </c>
+      <c r="R2" s="11">
+        <f>Calculations!S14*10</f>
+        <v>925780</v>
+      </c>
+      <c r="S2" s="11">
+        <f>Calculations!T14*10</f>
+        <v>902730</v>
+      </c>
+      <c r="T2" s="11">
+        <f>Calculations!U14*10</f>
+        <v>879680</v>
+      </c>
+      <c r="U2" s="11">
+        <f>Calculations!V14*10</f>
+        <v>856620</v>
+      </c>
+      <c r="V2" s="11">
+        <f>Calculations!W14*10</f>
+        <v>846480</v>
+      </c>
+      <c r="W2" s="11">
+        <f>Calculations!X14*10</f>
+        <v>836340</v>
+      </c>
+      <c r="X2" s="11">
+        <f>Calculations!Y14*10</f>
+        <v>826200</v>
+      </c>
+      <c r="Y2" s="11">
+        <f>Calculations!Z14*10</f>
+        <v>816050</v>
+      </c>
+      <c r="Z2" s="11">
+        <f>Calculations!AA14*10</f>
+        <v>805910</v>
+      </c>
+      <c r="AA2" s="11">
+        <f>Calculations!AB14*10</f>
+        <v>799820</v>
+      </c>
+      <c r="AB2" s="11">
+        <f>Calculations!AC14*10</f>
+        <v>793740</v>
+      </c>
+      <c r="AC2" s="11">
+        <f>Calculations!AD14*10</f>
+        <v>787650</v>
+      </c>
+      <c r="AD2" s="11">
+        <f>Calculations!AE14*10</f>
+        <v>781570</v>
+      </c>
+      <c r="AE2" s="11">
+        <f>Calculations!AF14*10</f>
+        <v>775480</v>
       </c>
       <c r="AF2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a12692b057bc30d68596ac87c75a308">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd464ebbb7361a2027b4bc4be8d527a" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94825B5B-5551-428A-ACDB-9F3C83C6C691}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9D480BD-2350-4E3F-8A60-31F7B799F325}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58EF8824-9526-4355-8C1F-9528CCE4920E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
+++ b/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Desktop\Dropbox_Free_Zone\EPS\Model Repos\eps-us\InputData\trans\BNoGP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\BNoGP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1B5AEA-3A11-463F-9E0D-2C706DCF7B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8786C84A-B0FD-4D6D-BB29-4F3F5CB629F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="885" windowWidth="22950" windowHeight="13650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BNoGP" sheetId="3" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
+    <sheet name="BNoGP" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="income">#REF!</definedName>
     <definedName name="Range_EV">#REF!</definedName>
     <definedName name="range_ICE">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +34,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,33 +43,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>BNoEVC BAU Number of Gas Pumps</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>Number of Gas pumps</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Number of Gas pumps</t>
-  </si>
-  <si>
-    <t>CleanTechnica</t>
-  </si>
-  <si>
-    <t>Stop Comparing the Number of Gas Stations to EV Charging Stations</t>
-  </si>
-  <si>
-    <t>https://cleantechnica.com/2018/03/07/stop-comparing-number-gas-stations-ev-charging-stations/</t>
-  </si>
-  <si>
-    <t>Number of chargers</t>
-  </si>
-  <si>
-    <t>We assume the number of gas pumps remains relatively constant.</t>
-  </si>
-  <si>
-    <t>BNoEVC BAU Number of Gas Pumps</t>
+    <t>gas stations</t>
+  </si>
+  <si>
+    <t>We assume 10 gas pumps per gas station in average</t>
+  </si>
+  <si>
+    <t>ICCT 2021</t>
+  </si>
+  <si>
+    <t>The role of the European Union’s vehicle CO2 standards in achieving the European Green Deal</t>
+  </si>
+  <si>
+    <t>https://theicct.org/wp-content/uploads/2021/06/EU-vehicle-standards-green-deal-mar21.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The development of gas pumps is assumed to correlate with the projected </t>
+  </si>
+  <si>
+    <t>sales development of gasoline and diesel</t>
+  </si>
+  <si>
+    <t>Number of gas pumps</t>
+  </si>
+  <si>
+    <t>Numer of gas pumps based on total fuel sales development</t>
+  </si>
+  <si>
+    <t>ICCT</t>
+  </si>
+  <si>
+    <t>passenger cars</t>
+  </si>
+  <si>
+    <t>trucks</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>tailpipe CO2-emissions (milion tonnes)</t>
+  </si>
+  <si>
+    <t>figure 3, page 5</t>
+  </si>
+  <si>
+    <t>tailpipe CO2 emissions (million tonnes)</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>BAU Gas Pumps</t>
@@ -76,7 +115,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +141,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -114,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,12 +194,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -138,8 +221,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3 2" xfId="1" xr:uid="{3F0B3957-5839-491A-BB84-14323CF38870}"/>
   </cellStyles>
@@ -419,59 +511,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -481,22 +581,693 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C168868-269A-4654-B56E-6430D5E306FF}">
+  <dimension ref="A1:AF51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2030</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2035</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2040</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2045</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>550</v>
+      </c>
+      <c r="C7" s="8">
+        <v>495</v>
+      </c>
+      <c r="D7" s="8">
+        <v>418</v>
+      </c>
+      <c r="E7" s="8">
+        <v>352</v>
+      </c>
+      <c r="F7" s="8">
+        <v>302.5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>275</v>
+      </c>
+      <c r="H7" s="8">
+        <v>258.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="10">
+        <v>200</v>
+      </c>
+      <c r="C8" s="10">
+        <v>200</v>
+      </c>
+      <c r="D8" s="10">
+        <v>182</v>
+      </c>
+      <c r="E8" s="10">
+        <v>175</v>
+      </c>
+      <c r="F8" s="10">
+        <v>162</v>
+      </c>
+      <c r="G8" s="10">
+        <v>162</v>
+      </c>
+      <c r="H8" s="10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8">
+        <v>750</v>
+      </c>
+      <c r="C9" s="8">
+        <v>695</v>
+      </c>
+      <c r="D9" s="8">
+        <v>600</v>
+      </c>
+      <c r="E9" s="8">
+        <v>527</v>
+      </c>
+      <c r="F9" s="8">
+        <v>464.5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>437</v>
+      </c>
+      <c r="H9" s="8">
+        <v>420.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2021</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2022</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2025</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2026</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2027</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2028</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2029</v>
+      </c>
+      <c r="L12" s="8">
+        <v>2030</v>
+      </c>
+      <c r="M12" s="8">
+        <v>2031</v>
+      </c>
+      <c r="N12" s="8">
+        <v>2032</v>
+      </c>
+      <c r="O12" s="8">
+        <v>2033</v>
+      </c>
+      <c r="P12" s="8">
+        <v>2034</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>2035</v>
+      </c>
+      <c r="R12" s="8">
+        <v>2036</v>
+      </c>
+      <c r="S12" s="8">
+        <v>2037</v>
+      </c>
+      <c r="T12" s="8">
+        <v>2038</v>
+      </c>
+      <c r="U12" s="8">
+        <v>2039</v>
+      </c>
+      <c r="V12" s="8">
+        <v>2040</v>
+      </c>
+      <c r="W12" s="8">
+        <v>2041</v>
+      </c>
+      <c r="X12" s="8">
+        <v>2042</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>2043</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>2044</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>2045</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>2046</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>2047</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>2048</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>2049</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>750</v>
+      </c>
+      <c r="C13" s="8">
+        <v>739</v>
+      </c>
+      <c r="D13" s="8">
+        <v>728</v>
+      </c>
+      <c r="E13" s="8">
+        <v>717</v>
+      </c>
+      <c r="F13" s="8">
+        <v>706</v>
+      </c>
+      <c r="G13" s="8">
+        <v>695</v>
+      </c>
+      <c r="H13" s="8">
+        <v>676</v>
+      </c>
+      <c r="I13" s="8">
+        <v>657</v>
+      </c>
+      <c r="J13" s="8">
+        <v>638</v>
+      </c>
+      <c r="K13" s="8">
+        <v>619</v>
+      </c>
+      <c r="L13" s="8">
+        <v>600</v>
+      </c>
+      <c r="M13" s="8">
+        <v>585</v>
+      </c>
+      <c r="N13" s="8">
+        <v>571</v>
+      </c>
+      <c r="O13" s="8">
+        <v>556</v>
+      </c>
+      <c r="P13" s="8">
+        <v>542</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>527</v>
+      </c>
+      <c r="R13" s="8">
+        <v>515</v>
+      </c>
+      <c r="S13" s="8">
+        <v>502</v>
+      </c>
+      <c r="T13" s="8">
+        <v>490</v>
+      </c>
+      <c r="U13" s="8">
+        <v>477</v>
+      </c>
+      <c r="V13" s="8">
+        <v>465</v>
+      </c>
+      <c r="W13" s="8">
+        <v>459</v>
+      </c>
+      <c r="X13" s="8">
+        <v>454</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>448</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>443</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>437</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>434</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>430</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>427</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>424</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7">
+        <v>138314</v>
+      </c>
+      <c r="C14" s="7">
+        <v>136285</v>
+      </c>
+      <c r="D14" s="7">
+        <v>134257</v>
+      </c>
+      <c r="E14" s="7">
+        <v>132228</v>
+      </c>
+      <c r="F14" s="7">
+        <v>130200</v>
+      </c>
+      <c r="G14" s="7">
+        <v>128171</v>
+      </c>
+      <c r="H14" s="7">
+        <v>124667</v>
+      </c>
+      <c r="I14" s="7">
+        <v>121163</v>
+      </c>
+      <c r="J14" s="7">
+        <v>117659</v>
+      </c>
+      <c r="K14" s="7">
+        <v>114155</v>
+      </c>
+      <c r="L14" s="7">
+        <v>110651</v>
+      </c>
+      <c r="M14" s="7">
+        <v>107959</v>
+      </c>
+      <c r="N14" s="7">
+        <v>105266</v>
+      </c>
+      <c r="O14" s="7">
+        <v>102574</v>
+      </c>
+      <c r="P14" s="7">
+        <v>99881</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>97189</v>
+      </c>
+      <c r="R14" s="7">
+        <v>94883</v>
+      </c>
+      <c r="S14" s="7">
+        <v>92578</v>
+      </c>
+      <c r="T14" s="7">
+        <v>90273</v>
+      </c>
+      <c r="U14" s="7">
+        <v>87968</v>
+      </c>
+      <c r="V14" s="7">
+        <v>85662</v>
+      </c>
+      <c r="W14" s="7">
+        <v>84648</v>
+      </c>
+      <c r="X14" s="7">
+        <v>83634</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>82620</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>81605</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>80591</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>79982</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>79374</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>78765</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>78157</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>77548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -589,103 +1360,420 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1200000</v>
-      </c>
-      <c r="C2">
-        <v>1200000</v>
-      </c>
-      <c r="D2">
-        <v>1200000</v>
-      </c>
-      <c r="E2">
-        <v>1200000</v>
-      </c>
-      <c r="F2">
-        <v>1200000</v>
-      </c>
-      <c r="G2">
-        <v>1200000</v>
-      </c>
-      <c r="H2">
-        <v>1200000</v>
-      </c>
-      <c r="I2">
-        <v>1200000</v>
-      </c>
-      <c r="J2">
-        <v>1200000</v>
-      </c>
-      <c r="K2">
-        <v>1200000</v>
-      </c>
-      <c r="L2">
-        <v>1200000</v>
-      </c>
-      <c r="M2">
-        <v>1200000</v>
-      </c>
-      <c r="N2">
-        <v>1200000</v>
-      </c>
-      <c r="O2">
-        <v>1200000</v>
-      </c>
-      <c r="P2">
-        <v>1200000</v>
-      </c>
-      <c r="Q2">
-        <v>1200000</v>
-      </c>
-      <c r="R2">
-        <v>1200000</v>
-      </c>
-      <c r="S2">
-        <v>1200000</v>
-      </c>
-      <c r="T2">
-        <v>1200000</v>
-      </c>
-      <c r="U2">
-        <v>1200000</v>
-      </c>
-      <c r="V2">
-        <v>1200000</v>
-      </c>
-      <c r="W2">
-        <v>1200000</v>
-      </c>
-      <c r="X2">
-        <v>1200000</v>
-      </c>
-      <c r="Y2">
-        <v>1200000</v>
-      </c>
-      <c r="Z2">
-        <v>1200000</v>
-      </c>
-      <c r="AA2">
-        <v>1200000</v>
-      </c>
-      <c r="AB2">
-        <v>1200000</v>
-      </c>
-      <c r="AC2">
-        <v>1200000</v>
-      </c>
-      <c r="AD2">
-        <v>1200000</v>
-      </c>
-      <c r="AE2">
-        <v>1200000</v>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="12">
+        <f>Calculations!C14*10</f>
+        <v>1362850</v>
+      </c>
+      <c r="C2" s="11">
+        <f>Calculations!D14*10</f>
+        <v>1342570</v>
+      </c>
+      <c r="D2" s="11">
+        <f>Calculations!E14*10</f>
+        <v>1322280</v>
+      </c>
+      <c r="E2" s="11">
+        <f>Calculations!F14*10</f>
+        <v>1302000</v>
+      </c>
+      <c r="F2" s="11">
+        <f>Calculations!G14*10</f>
+        <v>1281710</v>
+      </c>
+      <c r="G2" s="11">
+        <f>Calculations!H14*10</f>
+        <v>1246670</v>
+      </c>
+      <c r="H2" s="11">
+        <f>Calculations!I14*10</f>
+        <v>1211630</v>
+      </c>
+      <c r="I2" s="11">
+        <f>Calculations!J14*10</f>
+        <v>1176590</v>
+      </c>
+      <c r="J2" s="11">
+        <f>Calculations!K14*10</f>
+        <v>1141550</v>
+      </c>
+      <c r="K2" s="11">
+        <f>Calculations!L14*10</f>
+        <v>1106510</v>
+      </c>
+      <c r="L2" s="11">
+        <f>Calculations!M14*10</f>
+        <v>1079590</v>
+      </c>
+      <c r="M2" s="11">
+        <f>Calculations!N14*10</f>
+        <v>1052660</v>
+      </c>
+      <c r="N2" s="11">
+        <f>Calculations!O14*10</f>
+        <v>1025740</v>
+      </c>
+      <c r="O2" s="11">
+        <f>Calculations!P14*10</f>
+        <v>998810</v>
+      </c>
+      <c r="P2" s="11">
+        <f>Calculations!Q14*10</f>
+        <v>971890</v>
+      </c>
+      <c r="Q2" s="11">
+        <f>Calculations!R14*10</f>
+        <v>948830</v>
+      </c>
+      <c r="R2" s="11">
+        <f>Calculations!S14*10</f>
+        <v>925780</v>
+      </c>
+      <c r="S2" s="11">
+        <f>Calculations!T14*10</f>
+        <v>902730</v>
+      </c>
+      <c r="T2" s="11">
+        <f>Calculations!U14*10</f>
+        <v>879680</v>
+      </c>
+      <c r="U2" s="11">
+        <f>Calculations!V14*10</f>
+        <v>856620</v>
+      </c>
+      <c r="V2" s="11">
+        <f>Calculations!W14*10</f>
+        <v>846480</v>
+      </c>
+      <c r="W2" s="11">
+        <f>Calculations!X14*10</f>
+        <v>836340</v>
+      </c>
+      <c r="X2" s="11">
+        <f>Calculations!Y14*10</f>
+        <v>826200</v>
+      </c>
+      <c r="Y2" s="11">
+        <f>Calculations!Z14*10</f>
+        <v>816050</v>
+      </c>
+      <c r="Z2" s="11">
+        <f>Calculations!AA14*10</f>
+        <v>805910</v>
+      </c>
+      <c r="AA2" s="11">
+        <f>Calculations!AB14*10</f>
+        <v>799820</v>
+      </c>
+      <c r="AB2" s="11">
+        <f>Calculations!AC14*10</f>
+        <v>793740</v>
+      </c>
+      <c r="AC2" s="11">
+        <f>Calculations!AD14*10</f>
+        <v>787650</v>
+      </c>
+      <c r="AD2" s="11">
+        <f>Calculations!AE14*10</f>
+        <v>781570</v>
+      </c>
+      <c r="AE2" s="11">
+        <f>Calculations!AF14*10</f>
+        <v>775480</v>
       </c>
       <c r="AF2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a12692b057bc30d68596ac87c75a308">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd464ebbb7361a2027b4bc4be8d527a" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58EF8824-9526-4355-8C1F-9528CCE4920E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9D480BD-2350-4E3F-8A60-31F7B799F325}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94825B5B-5551-428A-ACDB-9F3C83C6C691}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>